--- a/PDF to EXCEL/4th1st_IMRAN.xlsx
+++ b/PDF to EXCEL/4th1st_IMRAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Academic\3rd Year\KUET 6th Sem\Laboratory\CSE 3200 System Development Project\PDF to EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52815A11-1CFE-471C-BACA-65C56B22FB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54FBC4-95A3-43C2-9302-537565A74A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1020" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1020" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="16" r:id="rId1"/>
@@ -3262,129 +3262,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3412,19 +3289,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3445,10 +3310,145 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15634,7 +15634,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -15655,52 +15655,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="F3" s="89" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="F3" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="F4" s="48" t="s">
         <v>17</v>
       </c>
@@ -15718,25 +15718,25 @@
       <c r="A5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1">
@@ -15779,543 +15779,543 @@
       <c r="I8" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="123" t="s">
+      <c r="J8" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="124"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="86">
         <v>2021</v>
       </c>
       <c r="E9" s="52"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="129">
+      <c r="F9" s="85"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="88">
         <f>K9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="130" t="s">
+      <c r="J9" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="131">
+      <c r="K9" s="90">
         <v>3600</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="53"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="129">
+      <c r="F10" s="85"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="88">
         <f>G10*K10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="130" t="s">
+      <c r="J10" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="131">
+      <c r="K10" s="90">
         <v>4500</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1">
-      <c r="A11" s="132"/>
-      <c r="B11" s="126" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="53"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="129">
+      <c r="F11" s="85"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="88">
         <f>K11*G11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="130" t="s">
+      <c r="J11" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="131">
+      <c r="K11" s="90">
         <v>4500</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="127"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="52"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="129">
+      <c r="F12" s="85"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="88">
         <f>IF(G12=0,0,IF(G12*K12&lt;750,750,G12*K12))</f>
         <v>0</v>
       </c>
-      <c r="J12" s="130" t="s">
+      <c r="J12" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="131">
+      <c r="K12" s="90">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1">
-      <c r="A13" s="135"/>
-      <c r="B13" s="126" t="s">
+      <c r="A13" s="105"/>
+      <c r="B13" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="52"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="129">
+      <c r="F13" s="85"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="88">
         <f>G13*K13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="130" t="s">
+      <c r="J13" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="131">
+      <c r="K13" s="90">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
-      <c r="A14" s="136"/>
-      <c r="B14" s="126" t="s">
+      <c r="A14" s="106"/>
+      <c r="B14" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="52"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="129">
+      <c r="F14" s="85"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="88">
         <f>K14*H14*G14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="130" t="s">
+      <c r="J14" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="131">
+      <c r="K14" s="90">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="53"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="129">
+      <c r="F15" s="85"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="88">
         <f>IF(G15=0,0,(G15*K15))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="130" t="s">
+      <c r="J15" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="131">
+      <c r="K15" s="90">
         <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1">
-      <c r="A16" s="135"/>
-      <c r="B16" s="126" t="s">
+      <c r="A16" s="105"/>
+      <c r="B16" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="53"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="129">
+      <c r="F16" s="85"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="88">
         <f>IF(H16=0,0,G16*K16/H16)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="130" t="s">
+      <c r="J16" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="131">
+      <c r="K16" s="90">
         <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1">
-      <c r="A17" s="135"/>
-      <c r="B17" s="126" t="s">
+      <c r="A17" s="105"/>
+      <c r="B17" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="86">
         <v>2021</v>
       </c>
       <c r="E17" s="52"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129">
+      <c r="F17" s="85"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="88">
         <f>IF(G17=0,0,IF(G17*K17&lt;1500,1500,G17*K17*H17))</f>
         <v>0</v>
       </c>
-      <c r="J17" s="138" t="s">
+      <c r="J17" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="131">
+      <c r="K17" s="90">
         <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="126" t="s">
+      <c r="A18" s="106"/>
+      <c r="B18" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="127">
+      <c r="D18" s="86">
         <v>2021</v>
       </c>
       <c r="E18" s="52"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="129">
+      <c r="F18" s="85"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="88">
         <f>IF(G18=0,0,G18*K18/H18)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="130" t="s">
+      <c r="J18" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="131">
+      <c r="K18" s="90">
         <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1">
-      <c r="A19" s="132" t="s">
+      <c r="A19" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="53"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="129">
+      <c r="F19" s="85"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="88">
         <f>K19*G19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="130" t="s">
+      <c r="J19" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="131">
+      <c r="K19" s="90">
         <v>2400</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A20" s="132"/>
-      <c r="B20" s="126" t="s">
+      <c r="A20" s="101"/>
+      <c r="B20" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="53"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="129">
+      <c r="F20" s="85"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="88">
         <f>IF(G20=0,0,G20*K20)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="130" t="s">
+      <c r="J20" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="131">
+      <c r="K20" s="90">
         <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1">
-      <c r="A21" s="132"/>
-      <c r="B21" s="126" t="s">
+      <c r="A21" s="101"/>
+      <c r="B21" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="53"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="129">
+      <c r="F21" s="85"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="88">
         <f>K21*G21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="130" t="s">
+      <c r="J21" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="131">
+      <c r="K21" s="90">
         <v>4500</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="127"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="53"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="129">
+      <c r="F22" s="85"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="88">
         <f>IF(G22=0,0,IF(G22*K22&lt;750,750,G22*K22))</f>
         <v>0</v>
       </c>
-      <c r="J22" s="130" t="s">
+      <c r="J22" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="131">
+      <c r="K22" s="90">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A23" s="132"/>
-      <c r="B23" s="126" t="s">
+      <c r="A23" s="101"/>
+      <c r="B23" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="127"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="53"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="129">
+      <c r="F23" s="85"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="88">
         <f>K23*G23/2</f>
         <v>0</v>
       </c>
-      <c r="J23" s="130" t="s">
+      <c r="J23" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="K23" s="131">
+      <c r="K23" s="90">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="21" customHeight="1">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="127"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="53"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="129">
+      <c r="F24" s="85"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="88">
         <f>IF(G24=0,0,IF(G24*K24&lt;1000,1000,G24*K24))</f>
         <v>0</v>
       </c>
-      <c r="J24" s="130" t="s">
+      <c r="J24" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="131">
+      <c r="K24" s="90">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="21" customHeight="1">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="133"/>
-      <c r="D25" s="127"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="53"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="129">
+      <c r="F25" s="85"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="88">
         <f>K25*G25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="130" t="s">
+      <c r="J25" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="131">
+      <c r="K25" s="90">
         <v>2700</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="21" customHeight="1">
-      <c r="A26" s="125" t="s">
+      <c r="A26" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="54"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="129">
+      <c r="F26" s="85"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="88">
         <f>K26*G26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="130" t="s">
+      <c r="J26" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="K26" s="131">
+      <c r="K26" s="90">
         <v>1500</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="126" t="s">
+      <c r="B27" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="53"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="129">
+      <c r="F27" s="85"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="88">
         <f>K27*G27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="130" t="s">
+      <c r="J27" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="K27" s="131">
+      <c r="K27" s="90">
         <v>900</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1">
-      <c r="A28" s="132"/>
-      <c r="B28" s="126" t="s">
+      <c r="A28" s="101"/>
+      <c r="B28" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="127"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
       <c r="E28" s="53"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="129">
+      <c r="F28" s="85"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="88">
         <f>K28*G28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="130" t="s">
+      <c r="J28" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="131">
+      <c r="K28" s="90">
         <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1">
-      <c r="A29" s="139" t="s">
+      <c r="A29" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="140" t="s">
+      <c r="B29" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
       <c r="E29" s="53"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="90"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A30" s="139" t="s">
+      <c r="A30" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="140" t="s">
+      <c r="B30" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="129">
+      <c r="F30" s="85"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="88">
         <f>G30*K30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="130" t="s">
+      <c r="J30" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="K30" s="141">
+      <c r="K30" s="96">
         <v>3600</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A31" s="142" t="s">
+      <c r="A31" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="142"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="144" t="s">
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="144"/>
-      <c r="I31" s="129">
+      <c r="H31" s="100"/>
+      <c r="I31" s="88">
         <f>SUM(I9:I30)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="130"/>
-      <c r="K31" s="124"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="83"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
       <c r="A32" s="50"/>
@@ -16331,8 +16331,8 @@
     </row>
     <row r="33" spans="1:10">
       <c r="C33" s="50"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="50"/>
       <c r="G33" s="50"/>
       <c r="H33" s="50"/>
@@ -16340,13 +16340,13 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="84"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="50"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="50"/>
       <c r="G34" s="50"/>
       <c r="H34" s="50"/>
@@ -16354,49 +16354,49 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="50"/>
       <c r="E35" s="50"/>
-      <c r="F35" s="86" t="s">
+      <c r="F35" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="50"/>
       <c r="E36" s="50"/>
-      <c r="F36" s="86" t="s">
+      <c r="F36" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="112"/>
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1">
@@ -16412,17 +16412,17 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="112"/>
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
@@ -16440,19 +16440,19 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="82"/>
+      <c r="B41" s="108"/>
       <c r="C41" s="50"/>
       <c r="D41" s="50"/>
       <c r="E41" s="50"/>
       <c r="F41" s="50"/>
       <c r="G41" s="50"/>
-      <c r="H41" s="83" t="s">
+      <c r="H41" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="I41" s="83"/>
+      <c r="I41" s="109"/>
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10">
@@ -16664,6 +16664,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="G31:H31"/>
@@ -16675,20 +16689,6 @@
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="F35:I35"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="The date of this cell can't be changed or deleted." sqref="K44:K65536" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -16729,54 +16729,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -16800,25 +16800,25 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1">
@@ -16894,7 +16894,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="120" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -16918,7 +16918,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1">
-      <c r="A11" s="98"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="18" t="s">
         <v>37</v>
       </c>
@@ -16944,7 +16944,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="121" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -16971,7 +16971,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="18" t="s">
         <v>106</v>
       </c>
@@ -16993,7 +16993,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
-      <c r="A14" s="101"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
@@ -17015,7 +17015,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="121" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -17039,7 +17039,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
@@ -17061,7 +17061,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
@@ -17083,7 +17083,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1">
-      <c r="A18" s="101"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="18" t="s">
         <v>45</v>
       </c>
@@ -17105,7 +17105,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="120" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -17129,7 +17129,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A20" s="98"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="18" t="s">
         <v>103</v>
       </c>
@@ -17151,7 +17151,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A21" s="98"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="18" t="s">
         <v>104</v>
       </c>
@@ -17173,7 +17173,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1">
-      <c r="A22" s="98"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="18" t="s">
         <v>49</v>
       </c>
@@ -17195,7 +17195,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="120" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -17223,7 +17223,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A24" s="98"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="18" t="s">
         <v>52</v>
       </c>
@@ -17325,7 +17325,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="120" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -17349,7 +17349,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1">
-      <c r="A29" s="98"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="18" t="s">
         <v>61</v>
       </c>
@@ -17411,18 +17411,18 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="103" t="s">
+      <c r="G32" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="103"/>
+      <c r="H32" s="125"/>
       <c r="I32" s="33">
         <f>SUM(I9:I31)</f>
         <v>1500</v>
@@ -17445,8 +17445,8 @@
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="26"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -17454,13 +17454,13 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="102"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="26"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -17468,49 +17468,49 @@
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="92" t="s">
+      <c r="F36" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
-      <c r="F37" s="107" t="s">
+      <c r="F37" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1">
@@ -17526,17 +17526,17 @@
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
@@ -17554,19 +17554,19 @@
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="95"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="93" t="s">
+      <c r="H42" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="93"/>
+      <c r="I42" s="126"/>
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10">
@@ -17782,12 +17782,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:I42"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="A6:I6"/>
@@ -17801,12 +17801,12 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="D34:E35"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="The date of this cell can't be changed or deleted." sqref="K45:K65536" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -17847,54 +17847,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -17918,25 +17918,25 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1">
@@ -18012,7 +18012,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="121" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -18036,7 +18036,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1">
-      <c r="A11" s="101"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="18" t="s">
         <v>37</v>
       </c>
@@ -18058,7 +18058,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="121" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -18086,7 +18086,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1">
-      <c r="A13" s="101"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="18" t="s">
         <v>40</v>
       </c>
@@ -18108,7 +18108,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="121" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -18132,7 +18132,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1">
-      <c r="A15" s="100"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="18" t="s">
         <v>43</v>
       </c>
@@ -18154,7 +18154,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="18" t="s">
         <v>44</v>
       </c>
@@ -18176,7 +18176,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1">
-      <c r="A17" s="101"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="18" t="s">
         <v>45</v>
       </c>
@@ -18198,7 +18198,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="121" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -18222,7 +18222,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A19" s="100"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="18" t="s">
         <v>103</v>
       </c>
@@ -18244,7 +18244,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A20" s="100"/>
+      <c r="A20" s="122"/>
       <c r="B20" s="18" t="s">
         <v>104</v>
       </c>
@@ -18266,7 +18266,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1">
-      <c r="A21" s="101"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="18" t="s">
         <v>49</v>
       </c>
@@ -18288,7 +18288,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="121" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -18312,7 +18312,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A23" s="101"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
@@ -18490,18 +18490,18 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="121" t="s">
+      <c r="G30" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="122"/>
+      <c r="H30" s="144"/>
       <c r="I30" s="33">
         <f>SUM(I9:I29)</f>
         <v>0</v>
@@ -18524,8 +18524,8 @@
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -18533,13 +18533,13 @@
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="102"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
@@ -18547,49 +18547,49 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="92" t="s">
+      <c r="F34" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="107" t="s">
+      <c r="F35" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="13.5" customHeight="1">
@@ -18605,17 +18605,17 @@
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
@@ -18633,19 +18633,19 @@
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="95"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
-      <c r="H40" s="93" t="s">
+      <c r="H40" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="I40" s="93"/>
+      <c r="I40" s="126"/>
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10">
@@ -18861,6 +18861,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="H40:I40"/>
@@ -18869,22 +18885,6 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="The date of this cell can't be changed or deleted." sqref="K43:K65536" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -18903,8 +18903,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -18924,54 +18924,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -18995,25 +18995,25 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1">
@@ -19085,7 +19085,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="120" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -19109,7 +19109,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1">
-      <c r="A11" s="98"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="18" t="s">
         <v>37</v>
       </c>
@@ -19131,7 +19131,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="121" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -19155,7 +19155,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="18" t="s">
         <v>106</v>
       </c>
@@ -19177,7 +19177,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
-      <c r="A14" s="101"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
@@ -19199,7 +19199,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="121" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -19223,7 +19223,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
@@ -19245,7 +19245,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
@@ -19267,7 +19267,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1">
-      <c r="A18" s="101"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="18" t="s">
         <v>45</v>
       </c>
@@ -19289,7 +19289,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="120" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -19313,7 +19313,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A20" s="98"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="18" t="s">
         <v>48</v>
       </c>
@@ -19335,7 +19335,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1">
-      <c r="A21" s="98"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="18" t="s">
         <v>49</v>
       </c>
@@ -19357,7 +19357,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="120" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -19381,7 +19381,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A23" s="98"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
@@ -19475,7 +19475,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="120" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -19499,7 +19499,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1">
-      <c r="A28" s="98"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="18" t="s">
         <v>61</v>
       </c>
@@ -19566,18 +19566,18 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="103" t="s">
+      <c r="G31" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="103"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="33">
         <f>SUM(I9:I30)</f>
         <v>0</v>
@@ -19600,8 +19600,8 @@
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
@@ -19609,13 +19609,13 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="102"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="26"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -19623,49 +19623,49 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="92" t="s">
+      <c r="F35" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="92" t="s">
+      <c r="F36" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1">
@@ -19681,17 +19681,17 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
@@ -19709,19 +19709,19 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="95"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="93" t="s">
+      <c r="H41" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="I41" s="93"/>
+      <c r="I41" s="126"/>
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10">
@@ -19937,12 +19937,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="H41:I41"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="A6:I6"/>
@@ -19956,12 +19956,12 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="D33:E34"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="The date of this cell can't be changed or deleted." sqref="K44:K65536" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -19981,7 +19981,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -20002,54 +20002,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -20073,25 +20073,25 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1">
@@ -20163,7 +20163,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="120" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -20187,7 +20187,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1">
-      <c r="A11" s="98"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="18" t="s">
         <v>37</v>
       </c>
@@ -20213,7 +20213,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="121" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -20237,7 +20237,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="18" t="s">
         <v>106</v>
       </c>
@@ -20259,7 +20259,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
-      <c r="A14" s="101"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
@@ -20281,7 +20281,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="121" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -20305,7 +20305,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
@@ -20327,7 +20327,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
@@ -20349,7 +20349,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1">
-      <c r="A18" s="101"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="18" t="s">
         <v>45</v>
       </c>
@@ -20371,7 +20371,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="120" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -20395,7 +20395,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A20" s="98"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="18" t="s">
         <v>48</v>
       </c>
@@ -20417,7 +20417,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1">
-      <c r="A21" s="98"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="18" t="s">
         <v>49</v>
       </c>
@@ -20439,7 +20439,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="120" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -20467,7 +20467,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A23" s="98"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
@@ -20565,7 +20565,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="120" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -20589,7 +20589,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1">
-      <c r="A28" s="98"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="18" t="s">
         <v>61</v>
       </c>
@@ -20656,18 +20656,18 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="103" t="s">
+      <c r="G31" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="103"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="33">
         <f>SUM(I9:I30)</f>
         <v>0</v>
@@ -20690,8 +20690,8 @@
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
@@ -20699,13 +20699,13 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="102"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="26"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -20713,49 +20713,49 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="92" t="s">
+      <c r="F35" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="107" t="s">
+      <c r="F36" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1">
@@ -20771,17 +20771,17 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
@@ -20799,19 +20799,19 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="95"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="93" t="s">
+      <c r="H41" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="I41" s="93"/>
+      <c r="I41" s="126"/>
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10">
@@ -21027,12 +21027,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="H41:I41"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="A6:I6"/>
@@ -21046,12 +21046,12 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="D33:E34"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="The date of this cell can't be changed or deleted." sqref="K44:K65536" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -21071,7 +21071,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -21092,54 +21092,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -21163,25 +21163,25 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1">
@@ -21253,7 +21253,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="120" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -21277,7 +21277,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1">
-      <c r="A11" s="98"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="18" t="s">
         <v>37</v>
       </c>
@@ -21299,7 +21299,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="121" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -21323,7 +21323,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="18" t="s">
         <v>106</v>
       </c>
@@ -21345,7 +21345,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
-      <c r="A14" s="101"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
@@ -21367,7 +21367,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="121" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -21391,7 +21391,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
@@ -21413,7 +21413,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
@@ -21443,7 +21443,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1">
-      <c r="A18" s="101"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="18" t="s">
         <v>45</v>
       </c>
@@ -21473,7 +21473,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="120" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -21497,7 +21497,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A20" s="98"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="18" t="s">
         <v>48</v>
       </c>
@@ -21519,7 +21519,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1">
-      <c r="A21" s="98"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="18" t="s">
         <v>49</v>
       </c>
@@ -21541,7 +21541,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="120" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -21565,7 +21565,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A23" s="98"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
@@ -21659,7 +21659,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="120" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -21683,7 +21683,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1">
-      <c r="A28" s="98"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="18" t="s">
         <v>61</v>
       </c>
@@ -21744,18 +21744,18 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="103" t="s">
+      <c r="G31" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="103"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="33">
         <f>SUM(I9:I30)</f>
         <v>18253.125</v>
@@ -21778,8 +21778,8 @@
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
@@ -21787,13 +21787,13 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="102"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="26"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -21801,49 +21801,49 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="92" t="s">
+      <c r="F35" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="107" t="s">
+      <c r="F36" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1">
@@ -21859,17 +21859,17 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
@@ -21887,19 +21887,19 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="95"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="93" t="s">
+      <c r="H41" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="I41" s="93"/>
+      <c r="I41" s="126"/>
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10">
@@ -22115,12 +22115,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="H41:I41"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="A6:I6"/>
@@ -22134,12 +22134,12 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="D33:E34"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="The date of this cell can't be changed or deleted." sqref="K44:K65536" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -22159,7 +22159,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -22180,54 +22180,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -22251,25 +22251,25 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1">
@@ -22341,7 +22341,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="120" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -22365,7 +22365,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1">
-      <c r="A11" s="98"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="18" t="s">
         <v>37</v>
       </c>
@@ -22387,7 +22387,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="121" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -22411,7 +22411,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="18" t="s">
         <v>106</v>
       </c>
@@ -22433,7 +22433,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
-      <c r="A14" s="101"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
@@ -22455,7 +22455,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="121" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -22479,7 +22479,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
@@ -22501,7 +22501,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
@@ -22523,7 +22523,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1">
-      <c r="A18" s="101"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="18" t="s">
         <v>45</v>
       </c>
@@ -22545,7 +22545,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="120" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -22569,7 +22569,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A20" s="98"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="18" t="s">
         <v>48</v>
       </c>
@@ -22591,7 +22591,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1">
-      <c r="A21" s="98"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="18" t="s">
         <v>49</v>
       </c>
@@ -22613,7 +22613,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="120" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -22637,7 +22637,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A23" s="98"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
@@ -22735,7 +22735,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="120" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -22759,7 +22759,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1">
-      <c r="A28" s="98"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="18" t="s">
         <v>61</v>
       </c>
@@ -22826,18 +22826,18 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="103" t="s">
+      <c r="G31" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="103"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="33">
         <f>SUM(I9:I30)</f>
         <v>0</v>
@@ -22860,8 +22860,8 @@
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
@@ -22869,13 +22869,13 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="102"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="26"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -22883,49 +22883,49 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="92" t="s">
+      <c r="F35" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="107" t="s">
+      <c r="F36" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1">
@@ -22941,17 +22941,17 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
@@ -22969,19 +22969,19 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="95"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="93" t="s">
+      <c r="H41" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="I41" s="93"/>
+      <c r="I41" s="126"/>
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10">
@@ -23197,12 +23197,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="H41:I41"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="A6:I6"/>
@@ -23216,12 +23216,12 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="D33:E34"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="The date of this cell can't be changed or deleted." sqref="K44:K65536" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -23262,54 +23262,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -23333,25 +23333,25 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1">
@@ -23423,7 +23423,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="120" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -23447,7 +23447,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1">
-      <c r="A11" s="98"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="18" t="s">
         <v>37</v>
       </c>
@@ -23469,7 +23469,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="121" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -23493,7 +23493,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="18" t="s">
         <v>106</v>
       </c>
@@ -23515,7 +23515,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
-      <c r="A14" s="101"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
@@ -23537,7 +23537,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="121" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -23559,7 +23559,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
@@ -23581,7 +23581,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
@@ -23611,7 +23611,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1">
-      <c r="A18" s="100"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="18" t="s">
         <v>45</v>
       </c>
@@ -23641,7 +23641,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="120" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -23665,7 +23665,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A20" s="98"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="18" t="s">
         <v>48</v>
       </c>
@@ -23686,7 +23686,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1">
-      <c r="A21" s="98"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="18" t="s">
         <v>49</v>
       </c>
@@ -23708,7 +23708,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="120" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -23732,7 +23732,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A23" s="98"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
@@ -23826,7 +23826,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="120" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -23850,7 +23850,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1">
-      <c r="A28" s="98"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="18" t="s">
         <v>61</v>
       </c>
@@ -23913,18 +23913,18 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="124" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="103" t="s">
+      <c r="G31" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="103"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="33">
         <f>SUM(I9:I30)</f>
         <v>9243.75</v>
@@ -23947,8 +23947,8 @@
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
@@ -23956,13 +23956,13 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="102"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="26"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -23970,49 +23970,49 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="92" t="s">
+      <c r="F35" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="107" t="s">
+      <c r="F36" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="13.5" customHeight="1">
@@ -24028,17 +24028,17 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
@@ -24056,19 +24056,19 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="95"/>
+      <c r="B41" s="128"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="93" t="s">
+      <c r="H41" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="I41" s="93"/>
+      <c r="I41" s="126"/>
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10">
@@ -24284,12 +24284,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="H41:I41"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="A6:I6"/>
@@ -24303,12 +24303,12 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="D33:E34"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="The date of this cell can't be changed or deleted." sqref="K44:K65536" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -24328,7 +24328,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -24349,54 +24349,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="80"/>
       <c r="E4" s="80"/>
       <c r="F4" s="80" t="s">
@@ -24420,25 +24420,25 @@
       <c r="C5" s="80"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1">
@@ -24511,7 +24511,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="134" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="39" t="s">
@@ -24535,7 +24535,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1">
-      <c r="A11" s="113"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="39" t="s">
         <v>37</v>
       </c>
@@ -24557,7 +24557,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="135" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="39" t="s">
@@ -24581,7 +24581,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1">
-      <c r="A13" s="115"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="39" t="s">
         <v>106</v>
       </c>
@@ -24603,7 +24603,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
-      <c r="A14" s="116"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="39" t="s">
         <v>40</v>
       </c>
@@ -24625,7 +24625,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="135" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -24649,7 +24649,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1">
-      <c r="A16" s="115"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="39" t="s">
         <v>43</v>
       </c>
@@ -24679,7 +24679,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1">
-      <c r="A17" s="115"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="39" t="s">
         <v>44</v>
       </c>
@@ -24701,7 +24701,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1">
-      <c r="A18" s="116"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="39" t="s">
         <v>45</v>
       </c>
@@ -24723,7 +24723,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="134" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="39" t="s">
@@ -24747,7 +24747,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A20" s="113"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="39" t="s">
         <v>103</v>
       </c>
@@ -24775,7 +24775,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A21" s="113"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="39" t="s">
         <v>104</v>
       </c>
@@ -24797,7 +24797,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1">
-      <c r="A22" s="113"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="39" t="s">
         <v>49</v>
       </c>
@@ -24819,7 +24819,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="134" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="39" t="s">
@@ -24843,7 +24843,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A24" s="113"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="39" t="s">
         <v>52</v>
       </c>
@@ -24949,7 +24949,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A28" s="113" t="s">
+      <c r="A28" s="134" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="39" t="s">
@@ -24979,7 +24979,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1">
-      <c r="A29" s="113"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="39" t="s">
         <v>61</v>
       </c>
@@ -25042,18 +25042,18 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="138" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="117"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
       <c r="F32" s="78"/>
-      <c r="G32" s="103" t="s">
+      <c r="G32" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="103"/>
+      <c r="H32" s="125"/>
       <c r="I32" s="79">
         <f>SUM(I9:I31)</f>
         <v>13652.173913043478</v>
@@ -25077,8 +25077,8 @@
       <c r="A34" s="80"/>
       <c r="B34" s="80"/>
       <c r="C34" s="78"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
       <c r="F34" s="78"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
@@ -25086,13 +25086,13 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="117"/>
+      <c r="B35" s="138"/>
       <c r="C35" s="78"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
       <c r="F35" s="78"/>
       <c r="G35" s="78"/>
       <c r="H35" s="78"/>
@@ -25100,49 +25100,49 @@
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132"/>
       <c r="D36" s="78"/>
       <c r="E36" s="78"/>
-      <c r="F36" s="112" t="s">
+      <c r="F36" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A37" s="108" t="s">
+      <c r="A37" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
       <c r="D37" s="78"/>
       <c r="E37" s="78"/>
-      <c r="F37" s="109" t="s">
+      <c r="F37" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1">
@@ -25158,17 +25158,17 @@
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
-      <c r="A40" s="103" t="s">
+      <c r="A40" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
@@ -25186,19 +25186,19 @@
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="141" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="111"/>
+      <c r="B42" s="141"/>
       <c r="C42" s="78"/>
       <c r="D42" s="78"/>
       <c r="E42" s="78"/>
       <c r="F42" s="78"/>
       <c r="G42" s="78"/>
-      <c r="H42" s="110" t="s">
+      <c r="H42" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="110"/>
+      <c r="I42" s="139"/>
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="13.8">
@@ -25415,12 +25415,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:I42"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="A6:I6"/>
@@ -25434,12 +25434,12 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="D34:E35"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="The date of this cell can't be changed or deleted." sqref="K45:K65536" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -25459,7 +25459,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -25480,54 +25480,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -25551,25 +25551,25 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1">
@@ -25641,7 +25641,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="120" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -25665,7 +25665,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1">
-      <c r="A11" s="98"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="18" t="s">
         <v>37</v>
       </c>
@@ -25687,7 +25687,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="121" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -25711,7 +25711,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="18" t="s">
         <v>106</v>
       </c>
@@ -25733,7 +25733,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
-      <c r="A14" s="101"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
@@ -25755,7 +25755,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="121" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -25779,7 +25779,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
@@ -25801,7 +25801,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
@@ -25823,7 +25823,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1">
-      <c r="A18" s="101"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="18" t="s">
         <v>45</v>
       </c>
@@ -25845,7 +25845,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="120" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -25867,7 +25867,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A20" s="98"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="18" t="s">
         <v>103</v>
       </c>
@@ -25889,7 +25889,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A21" s="98"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="18" t="s">
         <v>104</v>
       </c>
@@ -25911,7 +25911,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1">
-      <c r="A22" s="98"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="18" t="s">
         <v>49</v>
       </c>
@@ -25933,7 +25933,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="120" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -25957,7 +25957,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A24" s="98"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="18" t="s">
         <v>52</v>
       </c>
@@ -26051,7 +26051,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="120" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -26075,7 +26075,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1">
-      <c r="A29" s="98"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="18" t="s">
         <v>61</v>
       </c>
@@ -26137,18 +26137,18 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="124" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="103" t="s">
+      <c r="G32" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="103"/>
+      <c r="H32" s="125"/>
       <c r="I32" s="33">
         <f>SUM(I9:I31)</f>
         <v>0</v>
@@ -26171,8 +26171,8 @@
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="26"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -26180,13 +26180,13 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="102"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="26"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -26194,49 +26194,49 @@
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="92" t="s">
+      <c r="F36" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
-      <c r="F37" s="107" t="s">
+      <c r="F37" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1">
@@ -26252,17 +26252,17 @@
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
@@ -26280,19 +26280,19 @@
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="95"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="93" t="s">
+      <c r="H42" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="93"/>
+      <c r="I42" s="126"/>
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10">
@@ -26508,12 +26508,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:I42"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="A6:I6"/>
@@ -26527,12 +26527,12 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="D34:E35"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="The date of this cell can't be changed or deleted." sqref="K45:K65536" xr:uid="{00000000-0002-0000-0700-000000000000}">
@@ -26552,8 +26552,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E32"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -26573,54 +26573,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
@@ -26644,25 +26644,25 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1">
@@ -26740,7 +26740,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="120" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -26764,7 +26764,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1">
-      <c r="A11" s="98"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="18" t="s">
         <v>37</v>
       </c>
@@ -26786,7 +26786,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="121" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -26814,7 +26814,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1">
-      <c r="A13" s="100"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="18" t="s">
         <v>106</v>
       </c>
@@ -26836,7 +26836,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
-      <c r="A14" s="101"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
@@ -26858,7 +26858,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="121" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -26882,7 +26882,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
@@ -26904,7 +26904,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1">
-      <c r="A17" s="100"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
@@ -26926,7 +26926,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1">
-      <c r="A18" s="101"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="18" t="s">
         <v>45</v>
       </c>
@@ -26948,7 +26948,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="120" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -26972,7 +26972,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A20" s="98"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="18" t="s">
         <v>103</v>
       </c>
@@ -26994,7 +26994,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A21" s="98"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="18" t="s">
         <v>104</v>
       </c>
@@ -27016,7 +27016,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1">
-      <c r="A22" s="98"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="18" t="s">
         <v>49</v>
       </c>
@@ -27038,7 +27038,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="120" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -27062,7 +27062,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A24" s="98"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="18" t="s">
         <v>52</v>
       </c>
@@ -27161,7 +27161,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="120" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -27185,7 +27185,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1">
-      <c r="A29" s="98"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="18" t="s">
         <v>61</v>
       </c>
@@ -27247,18 +27247,18 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="103" t="s">
+      <c r="G32" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="103"/>
+      <c r="H32" s="125"/>
       <c r="I32" s="33">
         <f>SUM(I9:I31)</f>
         <v>13900</v>
@@ -27281,8 +27281,8 @@
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="26"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -27290,13 +27290,13 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="102"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="26"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -27304,49 +27304,49 @@
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="92" t="s">
+      <c r="F36" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
-      <c r="F37" s="107" t="s">
+      <c r="F37" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" customHeight="1">
@@ -27362,17 +27362,17 @@
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
@@ -27390,19 +27390,19 @@
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="95"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
-      <c r="H42" s="93" t="s">
+      <c r="H42" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="93"/>
+      <c r="I42" s="126"/>
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10">
@@ -27618,6 +27618,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="A42:B42"/>
@@ -27628,21 +27643,6 @@
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="F37:I37"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="The date of this cell can't be changed or deleted." sqref="K45:K65536" xr:uid="{00000000-0002-0000-0800-000000000000}">
